--- a/Master/MasterData/WarpPoint.xlsx
+++ b/Master/MasterData/WarpPoint.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">$AUTO_KEY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Id</t>
   </si>
   <si>
     <t xml:space="preserve">AreaId</t>
@@ -244,10 +244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:E28"/>
+  <dimension ref="A5:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -255,22 +255,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -279,12 +277,15 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -296,13 +297,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,13 +314,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,13 +331,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,13 +348,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,13 +365,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,13 +382,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,13 +399,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,13 +416,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,84 +433,98 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/WarpPoint.xlsx
+++ b/Master/MasterData/WarpPoint.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">WarpDataId</t>
@@ -244,10 +247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:F28"/>
+  <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,27 +274,33 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -306,6 +315,9 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -323,6 +335,9 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -340,6 +355,9 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -357,6 +375,9 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -374,6 +395,9 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -391,6 +415,9 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -408,6 +435,9 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -425,6 +455,9 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -434,6 +467,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
@@ -441,6 +475,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
@@ -448,6 +483,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
@@ -455,6 +491,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
@@ -462,6 +499,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -469,6 +507,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -476,6 +515,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -483,6 +523,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -490,6 +531,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -497,6 +539,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -504,6 +547,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -511,6 +555,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -518,6 +563,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -525,6 +571,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/WarpPoint.xlsx
+++ b/Master/MasterData/WarpPoint.xlsx
@@ -250,7 +250,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,13 +309,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0</v>
+        <v>-790</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
@@ -329,10 +329,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>0</v>
@@ -349,10 +349,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>0</v>
@@ -369,10 +369,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>0</v>
@@ -389,10 +389,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>0</v>
@@ -409,10 +409,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>0</v>
@@ -429,10 +429,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>0</v>
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>0</v>

--- a/Master/MasterData/WarpPoint.xlsx
+++ b/Master/MasterData/WarpPoint.xlsx
@@ -250,7 +250,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,10 +329,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>-400</v>
+        <v>-680</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>0</v>
@@ -349,10 +349,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>-400</v>
+        <v>-680</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>0</v>
@@ -369,10 +369,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>-400</v>
+        <v>-680</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>0</v>
@@ -389,10 +389,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>-400</v>
+        <v>-680</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>0</v>
@@ -409,10 +409,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>-400</v>
+        <v>-680</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>0</v>
@@ -429,10 +429,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>-400</v>
+        <v>-680</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>0</v>
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>-400</v>
+        <v>-680</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>0</v>

--- a/Master/MasterData/WarpPoint.xlsx
+++ b/Master/MasterData/WarpPoint.xlsx
@@ -250,7 +250,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,10 +329,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>-680</v>
+        <v>-900</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>0</v>
@@ -349,10 +349,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>-680</v>
+        <v>-900</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>0</v>
@@ -369,10 +369,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>-680</v>
+        <v>-900</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>0</v>
@@ -389,10 +389,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>-680</v>
+        <v>-900</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>0</v>
@@ -409,10 +409,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>-680</v>
+        <v>-900</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>0</v>
@@ -429,10 +429,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>-680</v>
+        <v>-900</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>0</v>
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>-680</v>
+        <v>-900</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>0</v>

--- a/Master/MasterData/WarpPoint.xlsx
+++ b/Master/MasterData/WarpPoint.xlsx
@@ -250,7 +250,7 @@
   <dimension ref="A5:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14:E14"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,12 +462,24 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>530</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>-2910</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
